--- a/Stagiaires/Latif Samira.xlsx
+++ b/Stagiaires/Latif Samira.xlsx
@@ -9,59 +9,20 @@
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
-  <si>
-    <t>Tâche</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Date début</t>
   </si>
   <si>
-    <t>Réalisation du prototype</t>
-  </si>
-  <si>
-    <t>TP1_PFA</t>
-  </si>
-  <si>
-    <t>TP2_PFA</t>
-  </si>
-  <si>
-    <t>TP3_PFA</t>
-  </si>
-  <si>
-    <t>TP4_PFA</t>
-  </si>
-  <si>
-    <t>TP5_PFA</t>
-  </si>
-  <si>
-    <t>TP6_PFA Gwin Library</t>
-  </si>
-  <si>
-    <t>TP7_PFA Gwin Library</t>
-  </si>
-  <si>
-    <t>Démonstration TP5_PFA</t>
-  </si>
-  <si>
-    <t>Démonstration du Exemple 1 GwinApp</t>
-  </si>
-  <si>
-    <t>Démonstration du Exemple 2 GwinApp</t>
-  </si>
-  <si>
     <t>Rapport</t>
   </si>
   <si>
     <t>Rapport Version 1</t>
-  </si>
-  <si>
-    <t>Etape de modélisation</t>
   </si>
   <si>
     <t>Projet</t>
@@ -101,6 +62,117 @@
   </si>
   <si>
     <t>Date Fin</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>TP1_Linq</t>
+  </si>
+  <si>
+    <t>TP2_CRUD_EF_One_Classe</t>
+  </si>
+  <si>
+    <t>TP3_Migration_EF</t>
+  </si>
+  <si>
+    <t>TP4_RelationShip_EF</t>
+  </si>
+  <si>
+    <t>TP5_CRUD_EF_All_RelationShip</t>
+  </si>
+  <si>
+    <t>TP 5.1 - Insert Image with EF</t>
+  </si>
+  <si>
+    <t>TP6_Gwin_One_Classe</t>
+  </si>
+  <si>
+    <t>TP7_Gwin_Many_To_One</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_One_Classe</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_Many_To_One</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_Many_To_Many</t>
+  </si>
+  <si>
+    <t>TP8_Gwin_All_Relation_Ship</t>
+  </si>
+  <si>
+    <t>Rapport Version 2</t>
+  </si>
+  <si>
+    <t>Update- chapitre Analyse technique, par les tâches que vous avez réaliser</t>
+  </si>
+  <si>
+    <t>Test unitaire d'une EntityBLO</t>
+  </si>
+  <si>
+    <t>Auto-Formation sur GitHub pour Fork et PulRequest ( Optionnelle)</t>
+  </si>
+  <si>
+    <t>Demonstration - Intégration avec GitHub</t>
+  </si>
+  <si>
+    <t>Caputre des besoin</t>
+  </si>
+  <si>
+    <t>Club management system</t>
+  </si>
+  <si>
+    <t>Diagramme de context</t>
+  </si>
+  <si>
+    <t>Analyse fonctionelle</t>
+  </si>
+  <si>
+    <t>Diagramme de cas d'utilisation et Arabe ou en français</t>
+  </si>
+  <si>
+    <t>Dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Traudction de dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Diagramme de classe  en Anglais</t>
+  </si>
+  <si>
+    <t>Partage des tâches - chaque tâche contient 
+- Mini Diagramme de cas d'utilisation
+- Dictionnaire de données pour chaque classe 
+- Diagramme de classes à implémenter</t>
+  </si>
+  <si>
+    <t>Réalisation</t>
+  </si>
+  <si>
+    <t>Implémentation des classe C# avec fichiers ressources</t>
+  </si>
+  <si>
+    <t>Implémentation des classe BLO</t>
+  </si>
+  <si>
+    <t>Implémentation des Test unitaire de BLO</t>
+  </si>
+  <si>
+    <t>Validation et Intégration sur GitHub</t>
+  </si>
+  <si>
+    <t>Tâche</t>
+  </si>
+  <si>
+    <t>Etape de modélisation</t>
   </si>
 </sst>
 </file>
@@ -116,12 +188,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -144,24 +228,57 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -177,17 +294,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau_Taches" displayName="Tableau_Taches" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau_Tâches" displayName="Tableau_Tâches" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F28"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Etape de modélisation"/>
-    <tableColumn id="2" name="Projet"/>
-    <tableColumn id="3" name="Tâche" dataDxfId="2"/>
-    <tableColumn id="4" name="Description" dataDxfId="0"/>
-    <tableColumn id="5" name="Date début" dataDxfId="1"/>
-    <tableColumn id="6" name="Date Fin" dataDxfId="3"/>
+    <tableColumn id="1" name="Etape de modélisation" dataDxfId="5"/>
+    <tableColumn id="2" name="Projet" dataDxfId="4"/>
+    <tableColumn id="3" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="22" name="Date début" dataDxfId="1"/>
+    <tableColumn id="23" name="Date Fin" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -478,186 +595,957 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:FU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:177" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:177" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>42795</v>
+      </c>
+      <c r="F2" s="5">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:177" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>42793</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:177" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>42797</v>
+      </c>
+      <c r="F4" s="5">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:177" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>42793</v>
+      </c>
+      <c r="F5" s="5">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:177" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>42795</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:177" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>42811</v>
+      </c>
+      <c r="F7" s="5">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:177" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5">
+        <v>42811</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:177" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>42793</v>
+      </c>
+      <c r="F9" s="5">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:177" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>42811</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:177" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
+        <v>42795</v>
+      </c>
+      <c r="F11" s="7">
+        <v>42795</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="11"/>
+      <c r="BP11" s="11"/>
+      <c r="BQ11" s="11"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="11"/>
+      <c r="BU11" s="11"/>
+      <c r="BV11" s="11"/>
+      <c r="BW11" s="11"/>
+      <c r="BX11" s="11"/>
+      <c r="BY11" s="11"/>
+      <c r="BZ11" s="11"/>
+      <c r="CA11" s="11"/>
+      <c r="CB11" s="11"/>
+      <c r="CC11" s="11"/>
+      <c r="CD11" s="11"/>
+      <c r="CE11" s="11"/>
+      <c r="CF11" s="11"/>
+      <c r="CG11" s="11"/>
+      <c r="CH11" s="11"/>
+      <c r="CI11" s="11"/>
+      <c r="CJ11" s="11"/>
+      <c r="CK11" s="11"/>
+      <c r="CL11" s="11"/>
+      <c r="CM11" s="11"/>
+      <c r="CN11" s="11"/>
+      <c r="CO11" s="11"/>
+      <c r="CP11" s="11"/>
+      <c r="CQ11" s="11"/>
+      <c r="CR11" s="11"/>
+      <c r="CS11" s="11"/>
+      <c r="CT11" s="11"/>
+      <c r="CU11" s="11"/>
+      <c r="CV11" s="11"/>
+      <c r="CW11" s="11"/>
+      <c r="CX11" s="11"/>
+      <c r="CY11" s="11"/>
+      <c r="CZ11" s="11"/>
+      <c r="DA11" s="11"/>
+      <c r="DB11" s="11"/>
+      <c r="DC11" s="11"/>
+      <c r="DD11" s="11"/>
+      <c r="DE11" s="11"/>
+      <c r="DF11" s="11"/>
+      <c r="DG11" s="11"/>
+      <c r="DH11" s="11"/>
+      <c r="DI11" s="11"/>
+      <c r="DJ11" s="11"/>
+      <c r="DK11" s="11"/>
+      <c r="DL11" s="11"/>
+      <c r="DM11" s="11"/>
+      <c r="DN11" s="11"/>
+      <c r="DO11" s="11"/>
+      <c r="DP11" s="11"/>
+      <c r="DQ11" s="11"/>
+      <c r="DR11" s="11"/>
+      <c r="DS11" s="11"/>
+      <c r="DT11" s="11"/>
+      <c r="DU11" s="11"/>
+      <c r="DV11" s="11"/>
+      <c r="DW11" s="11"/>
+      <c r="DX11" s="11"/>
+      <c r="DY11" s="11"/>
+      <c r="DZ11" s="11"/>
+      <c r="EA11" s="11"/>
+    </row>
+    <row r="12" spans="1:177" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7">
+        <v>42795</v>
+      </c>
+      <c r="F12" s="7">
+        <v>42795</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="11"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="11"/>
+      <c r="BP12" s="11"/>
+      <c r="BQ12" s="11"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="11"/>
+      <c r="BT12" s="11"/>
+      <c r="BU12" s="11"/>
+      <c r="BV12" s="11"/>
+      <c r="BW12" s="11"/>
+      <c r="BX12" s="11"/>
+      <c r="BY12" s="11"/>
+      <c r="BZ12" s="11"/>
+      <c r="CA12" s="11"/>
+      <c r="CB12" s="11"/>
+      <c r="CC12" s="11"/>
+      <c r="CD12" s="11"/>
+      <c r="CE12" s="11"/>
+      <c r="CF12" s="11"/>
+      <c r="CG12" s="11"/>
+      <c r="CH12" s="11"/>
+      <c r="CI12" s="11"/>
+      <c r="CJ12" s="11"/>
+      <c r="CK12" s="11"/>
+      <c r="CL12" s="11"/>
+      <c r="CM12" s="11"/>
+      <c r="CN12" s="11"/>
+      <c r="CO12" s="11"/>
+      <c r="CP12" s="11"/>
+      <c r="CQ12" s="11"/>
+      <c r="CR12" s="11"/>
+      <c r="CS12" s="11"/>
+      <c r="CT12" s="11"/>
+      <c r="CU12" s="11"/>
+      <c r="CV12" s="11"/>
+      <c r="CW12" s="11"/>
+      <c r="CX12" s="11"/>
+      <c r="CY12" s="11"/>
+      <c r="CZ12" s="11"/>
+      <c r="DA12" s="11"/>
+      <c r="DB12" s="11"/>
+      <c r="DC12" s="11"/>
+      <c r="DD12" s="11"/>
+      <c r="DE12" s="11"/>
+      <c r="DF12" s="11"/>
+      <c r="DG12" s="11"/>
+      <c r="DH12" s="11"/>
+      <c r="DI12" s="11"/>
+      <c r="DJ12" s="11"/>
+      <c r="DK12" s="11"/>
+      <c r="DL12" s="11"/>
+      <c r="DM12" s="11"/>
+      <c r="DN12" s="11"/>
+      <c r="DO12" s="11"/>
+      <c r="DP12" s="11"/>
+      <c r="DQ12" s="11"/>
+      <c r="DR12" s="11"/>
+      <c r="DS12" s="11"/>
+      <c r="DT12" s="11"/>
+      <c r="DU12" s="11"/>
+      <c r="DV12" s="11"/>
+      <c r="DW12" s="11"/>
+      <c r="DX12" s="11"/>
+      <c r="DY12" s="11"/>
+      <c r="DZ12" s="11"/>
+      <c r="EA12" s="11"/>
+      <c r="EB12" s="11"/>
+      <c r="EC12" s="11"/>
+      <c r="ED12" s="11"/>
+      <c r="EE12" s="11"/>
+      <c r="EF12" s="11"/>
+      <c r="EG12" s="11"/>
+      <c r="EH12" s="11"/>
+      <c r="EI12" s="11"/>
+      <c r="EJ12" s="11"/>
+      <c r="EK12" s="11"/>
+      <c r="EL12" s="11"/>
+      <c r="EM12" s="11"/>
+      <c r="EN12" s="11"/>
+      <c r="EO12" s="11"/>
+      <c r="EP12" s="11"/>
+      <c r="EQ12" s="11"/>
+      <c r="ER12" s="11"/>
+      <c r="ES12" s="11"/>
+      <c r="ET12" s="11"/>
+      <c r="EU12" s="11"/>
+      <c r="EV12" s="11"/>
+      <c r="EW12" s="11"/>
+      <c r="EX12" s="11"/>
+      <c r="EY12" s="11"/>
+      <c r="EZ12" s="11"/>
+      <c r="FA12" s="11"/>
+      <c r="FB12" s="11"/>
+      <c r="FC12" s="11"/>
+      <c r="FD12" s="11"/>
+      <c r="FE12" s="11"/>
+      <c r="FF12" s="11"/>
+      <c r="FG12" s="11"/>
+      <c r="FH12" s="11"/>
+      <c r="FI12" s="11"/>
+      <c r="FJ12" s="11"/>
+      <c r="FK12" s="11"/>
+      <c r="FL12" s="11"/>
+      <c r="FM12" s="11"/>
+      <c r="FN12" s="11"/>
+      <c r="FO12" s="11"/>
+      <c r="FP12" s="11"/>
+      <c r="FQ12" s="11"/>
+      <c r="FR12" s="11"/>
+      <c r="FS12" s="11"/>
+      <c r="FT12" s="11"/>
+      <c r="FU12" s="11"/>
+    </row>
+    <row r="13" spans="1:177" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7">
+        <v>42795</v>
+      </c>
+      <c r="F13" s="7">
+        <v>42795</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+      <c r="BU13" s="11"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="11"/>
+      <c r="BY13" s="11"/>
+      <c r="BZ13" s="11"/>
+      <c r="CA13" s="11"/>
+      <c r="CB13" s="11"/>
+      <c r="CC13" s="11"/>
+      <c r="CD13" s="11"/>
+      <c r="CE13" s="11"/>
+      <c r="CF13" s="11"/>
+      <c r="CG13" s="11"/>
+      <c r="CH13" s="11"/>
+      <c r="CI13" s="11"/>
+      <c r="CJ13" s="11"/>
+      <c r="CK13" s="11"/>
+      <c r="CL13" s="11"/>
+      <c r="CM13" s="11"/>
+      <c r="CN13" s="11"/>
+      <c r="CO13" s="11"/>
+      <c r="CP13" s="11"/>
+      <c r="CQ13" s="11"/>
+      <c r="CR13" s="11"/>
+      <c r="CS13" s="11"/>
+      <c r="CT13" s="11"/>
+      <c r="CU13" s="11"/>
+      <c r="CV13" s="11"/>
+      <c r="CW13" s="11"/>
+      <c r="CX13" s="11"/>
+      <c r="CY13" s="11"/>
+      <c r="CZ13" s="11"/>
+      <c r="DA13" s="11"/>
+      <c r="DB13" s="11"/>
+      <c r="DC13" s="11"/>
+      <c r="DD13" s="11"/>
+      <c r="DE13" s="11"/>
+      <c r="DF13" s="11"/>
+      <c r="DG13" s="11"/>
+      <c r="DH13" s="11"/>
+      <c r="DI13" s="11"/>
+      <c r="DJ13" s="11"/>
+      <c r="DK13" s="11"/>
+      <c r="DL13" s="11"/>
+      <c r="DM13" s="11"/>
+      <c r="DN13" s="11"/>
+      <c r="DO13" s="11"/>
+      <c r="DP13" s="11"/>
+      <c r="DQ13" s="11"/>
+      <c r="DR13" s="11"/>
+      <c r="DS13" s="11"/>
+      <c r="DT13" s="11"/>
+      <c r="DU13" s="11"/>
+      <c r="DV13" s="11"/>
+      <c r="DW13" s="11"/>
+      <c r="DX13" s="11"/>
+      <c r="DY13" s="11"/>
+      <c r="DZ13" s="11"/>
+      <c r="EA13" s="11"/>
+      <c r="EB13" s="11"/>
+      <c r="EC13" s="11"/>
+      <c r="ED13" s="11"/>
+      <c r="EE13" s="11"/>
+      <c r="EF13" s="11"/>
+      <c r="EG13" s="11"/>
+      <c r="EH13" s="11"/>
+      <c r="EI13" s="11"/>
+      <c r="EJ13" s="11"/>
+      <c r="EK13" s="11"/>
+      <c r="EL13" s="11"/>
+      <c r="EM13" s="11"/>
+      <c r="EN13" s="11"/>
+      <c r="EO13" s="11"/>
+      <c r="EP13" s="11"/>
+      <c r="EQ13" s="11"/>
+      <c r="ER13" s="11"/>
+      <c r="ES13" s="11"/>
+      <c r="ET13" s="11"/>
+      <c r="EU13" s="11"/>
+      <c r="EV13" s="11"/>
+      <c r="EW13" s="11"/>
+      <c r="EX13" s="11"/>
+      <c r="EY13" s="11"/>
+      <c r="EZ13" s="11"/>
+      <c r="FA13" s="11"/>
+      <c r="FB13" s="11"/>
+      <c r="FC13" s="11"/>
+      <c r="FD13" s="11"/>
+      <c r="FE13" s="11"/>
+      <c r="FF13" s="11"/>
+      <c r="FG13" s="11"/>
+      <c r="FH13" s="11"/>
+      <c r="FI13" s="11"/>
+      <c r="FJ13" s="11"/>
+      <c r="FK13" s="11"/>
+      <c r="FL13" s="11"/>
+      <c r="FM13" s="11"/>
+      <c r="FN13" s="11"/>
+      <c r="FO13" s="11"/>
+      <c r="FP13" s="11"/>
+      <c r="FQ13" s="11"/>
+      <c r="FR13" s="11"/>
+      <c r="FS13" s="11"/>
+      <c r="FT13" s="11"/>
+      <c r="FU13" s="11"/>
+    </row>
+    <row r="14" spans="1:177" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:177" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:177" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7">
         <v>42795</v>
       </c>
-      <c r="F2" s="2">
-        <v>42799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F18" s="7">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5">
+        <v>42809</v>
+      </c>
+      <c r="F19" s="5">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="5">
+        <v>42809</v>
+      </c>
+      <c r="F20" s="5">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
